--- a/mosip_master/xlsx/zone_user_h.xlsx
+++ b/mosip_master/xlsx/zone_user_h.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\codes\bfa\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF1852-D84B-4180-83B4-1EDB24753668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>lang_code</t>
   </si>
@@ -45,25 +44,88 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>nivetha</t>
+  </si>
+  <si>
+    <t>nambi</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>rajashree</t>
+  </si>
+  <si>
+    <t>nive</t>
+  </si>
+  <si>
+    <t>trialblazerseee</t>
+  </si>
+  <si>
+    <t>operator0</t>
+  </si>
+  <si>
+    <t>operator1</t>
+  </si>
+  <si>
+    <t>vishvani</t>
+  </si>
+  <si>
+    <t>narendra</t>
+  </si>
+  <si>
+    <t>murali</t>
+  </si>
+  <si>
+    <t>operateur1</t>
+  </si>
+  <si>
+    <t>operateur2</t>
+  </si>
+  <si>
+    <t>operateur3</t>
+  </si>
+  <si>
+    <t>superviseur1</t>
+  </si>
+  <si>
+    <t>superviseur2</t>
+  </si>
+  <si>
+    <t>operateur4</t>
+  </si>
+  <si>
+    <t>bfasuperadmin</t>
+  </si>
+  <si>
+    <t>operateur5</t>
+  </si>
+  <si>
+    <t>operateur6</t>
+  </si>
+  <si>
+    <t>operateur7</t>
+  </si>
+  <si>
+    <t>operateur8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +184,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,21 +498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,38 +529,905 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44974.694437013888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44975.493568136575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44975.622657523149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44975.622756585646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44977.477373935188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44977.478511469904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44988.313089456016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44988.31318542824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1103</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44994.356574189813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1103</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44994.356688703701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44994.390592812502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44994.39072127315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44993.597667743059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44993.612002048612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44995.339593935183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44995.339853217592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44995.460794050923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44995.461087615739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45096.410910081016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45096.411491736108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45100.332194432871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45100.332420312501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45100.332548599537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45105.510225833335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45105.510487476851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45105.510764155093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45105.510889328703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45105.515168935184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45105.51528994213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45125.453597939813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45125.453788634259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45125.454653229164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45125.454896574076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45125.455104780092</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45125.455240578704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45125.455318032407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45125.455441226855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45125.455533749999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45125.455645138885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45125.53257625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45125.533591724539</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45127.558066840276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45127.558202488428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45134.565824247686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45134.565980370367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45134.571216261575</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45134.571347094905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45134.591883587964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45134.592876689814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45134.59287818287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45135.404495416667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45135.404673958335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45166.289389884259</v>
       </c>
     </row>
   </sheetData>
